--- a/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
+++ b/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="137">
   <si>
     <t>土地坐落</t>
   </si>
@@ -309,6 +309,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>鴻海</t>
   </si>
   <si>
@@ -334,6 +343,9 @@
   </si>
   <si>
     <t>皇翔</t>
+  </si>
+  <si>
+    <t>2012-04-23</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1664,13 +1676,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1689,13 +1701,22 @@
       <c r="G1" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1712,13 +1733,22 @@
       <c r="G2" s="2">
         <v>19540</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1735,13 +1765,22 @@
       <c r="G3" s="2">
         <v>10040</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1758,13 +1797,22 @@
       <c r="G4" s="2">
         <v>24680</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1781,13 +1829,22 @@
       <c r="G5" s="2">
         <v>21610</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1804,13 +1861,22 @@
       <c r="G6" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1827,13 +1893,22 @@
       <c r="G7" s="2">
         <v>18220</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1850,13 +1925,22 @@
       <c r="G8" s="2">
         <v>11810</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1873,13 +1957,22 @@
       <c r="G9" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -1895,6 +1988,15 @@
       </c>
       <c r="G10" s="2">
         <v>10000</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1749</v>
       </c>
     </row>
   </sheetData>
@@ -1912,22 +2014,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>74</v>
@@ -1938,13 +2040,13 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2">
         <v>10000</v>
@@ -1974,10 +2076,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>70</v>
@@ -1989,7 +2091,7 @@
         <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1997,14 +2099,14 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2014,22 +2116,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2047,16 +2149,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2064,16 +2166,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2081,16 +2183,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2098,16 +2200,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2115,16 +2217,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
+++ b/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="139">
   <si>
     <t>土地坐落</t>
   </si>
@@ -309,6 +309,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -343,6 +346,9 @@
   </si>
   <si>
     <t>皇翔</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-23</t>
@@ -1676,13 +1682,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1710,13 +1716,16 @@
       <c r="J1" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1734,21 +1743,24 @@
         <v>19540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2">
+        <v>109</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2">
         <v>1749</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1766,21 +1778,24 @@
         <v>10040</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2">
+        <v>109</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2">
         <v>1749</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1798,21 +1813,24 @@
         <v>24680</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2">
+        <v>109</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2">
         <v>1749</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1830,21 +1848,24 @@
         <v>21610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2">
+        <v>109</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2">
         <v>1749</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1862,21 +1883,24 @@
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2">
+        <v>109</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2">
         <v>1749</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1894,21 +1918,24 @@
         <v>18220</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2">
+        <v>109</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2">
         <v>1749</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1926,21 +1953,24 @@
         <v>11810</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2">
+        <v>109</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2">
         <v>1749</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1958,21 +1988,24 @@
         <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2">
+        <v>109</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2">
         <v>1749</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -1990,12 +2023,15 @@
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="2">
+        <v>109</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2">
         <v>1749</v>
       </c>
     </row>
@@ -2014,22 +2050,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>74</v>
@@ -2040,13 +2076,13 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2">
         <v>10000</v>
@@ -2076,10 +2112,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>70</v>
@@ -2091,7 +2127,7 @@
         <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2099,14 +2135,14 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2116,22 +2152,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2149,16 +2185,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2166,16 +2202,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2183,16 +2219,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2200,16 +2236,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2217,16 +2253,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
+++ b/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="144">
   <si>
     <t>土地坐落</t>
   </si>
@@ -312,6 +312,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -321,6 +324,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>鴻海</t>
   </si>
   <si>
@@ -351,7 +360,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-23</t>
+  </si>
+  <si>
+    <t>tmp50641</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1682,13 +1697,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1719,13 +1734,22 @@
       <c r="K1" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1743,24 +1767,33 @@
         <v>19540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1749</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1778,24 +1811,33 @@
         <v>10040</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1749</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1813,24 +1855,33 @@
         <v>24680</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1749</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1848,24 +1899,33 @@
         <v>21610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1749</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1883,24 +1943,33 @@
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1749</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1918,24 +1987,33 @@
         <v>18220</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1749</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1953,24 +2031,33 @@
         <v>11810</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>1749</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1988,24 +2075,33 @@
         <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>1749</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2023,16 +2119,25 @@
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>1749</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="2">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2050,22 +2155,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>74</v>
@@ -2076,13 +2181,13 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2">
         <v>10000</v>
@@ -2112,10 +2217,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>70</v>
@@ -2127,7 +2232,7 @@
         <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2135,14 +2240,14 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2152,22 +2257,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2185,16 +2290,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2202,16 +2307,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2219,16 +2324,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2236,16 +2341,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2253,16 +2358,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
+++ b/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
@@ -22,9 +22,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="144">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="145">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市&gt;夕止區社后段社后頂小段01790002地號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區石潭段四小段02460000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區民生段00760000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區民生段00760002地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區民生段00760003地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區民生段00760004地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區民生段00760005地號</t>
+  </si>
+  <si>
+    <t>10000分之45</t>
+  </si>
+  <si>
+    <t>53000分之1982</t>
+  </si>
+  <si>
+    <t>10000分之42</t>
+  </si>
+  <si>
+    <t>許忠信</t>
+  </si>
+  <si>
+    <t>饒月琴</t>
+  </si>
+  <si>
+    <t>85年05月29日</t>
+  </si>
+  <si>
+    <t>94年09月05日</t>
+  </si>
+  <si>
+    <t>97年02月14日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>貴賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>7000000(房地總價額）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-23</t>
+  </si>
+  <si>
+    <t>tmp50641</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -45,136 +159,64 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市 &gt;夕止區社后段社后頂小 段0179-0002地號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區石潭段四小段 0246-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區民生段0076-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區民生段0076-0002 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區民生段0076-0003 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區民生段0076-0004 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區民生段0076-0005 地號</t>
-  </si>
-  <si>
-    <t>10000分之 45</t>
-  </si>
-  <si>
-    <t>53000分之 1982</t>
-  </si>
-  <si>
-    <t>10000分之 42</t>
-  </si>
-  <si>
-    <t>許忠信</t>
-  </si>
-  <si>
-    <t>饒月琴</t>
-  </si>
-  <si>
-    <t>85年05月 29日</t>
-  </si>
-  <si>
-    <t>94年09月 05日</t>
-  </si>
-  <si>
-    <t>97年02月 14日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>貴賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>7,000,000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>7’000,000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>7,000’000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>7，000,000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段09864-000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段09909-000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段09913-000建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區石潭段四小段 02509-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區石潭段四小段 02542-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區石潭段四小段 02544-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區石潭段四小段 02546-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區民生段12319-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市松山處民生段12551-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市新市區港子墘段 01102-000 建號</t>
+    <t>新北市汐止區社后段社后頂小段09864000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段09909000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段09913000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區石潭段四小段02509000建號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區石潭段四小段02542000建號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區石潭段四小段02544000建號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區石潭段四小段02546000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區民生段12319000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山處民生段12551000建號</t>
+  </si>
+  <si>
+    <t>臺南市新市區港子墘段01102000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之 82</t>
-  </si>
-  <si>
-    <t>10000分之 182</t>
-  </si>
-  <si>
-    <t>25000分之 714</t>
-  </si>
-  <si>
-    <t>10000分之 4981</t>
-  </si>
-  <si>
-    <t>12000分之 2238</t>
-  </si>
-  <si>
-    <t>10000分之 49</t>
-  </si>
-  <si>
-    <t>許忠信 (</t>
-  </si>
-  <si>
-    <t>97年02月 14曰</t>
-  </si>
-  <si>
-    <t>94年01月 12日</t>
+    <t>10000分之82</t>
+  </si>
+  <si>
+    <t>10000分之182</t>
+  </si>
+  <si>
+    <t>25000分之714</t>
+  </si>
+  <si>
+    <t>10000分之4981</t>
+  </si>
+  <si>
+    <t>12000分之2238</t>
+  </si>
+  <si>
+    <t>10000分之49</t>
+  </si>
+  <si>
+    <t>許忠信(</t>
+  </si>
+  <si>
+    <t>97年02月14曰</t>
+  </si>
+  <si>
+    <t>94年01月12日</t>
   </si>
   <si>
     <t>受贈</t>
@@ -183,19 +225,16 @@
     <t>興建</t>
   </si>
   <si>
-    <t>(超過五年，與 09864-000建 號一併購買， 共同使用部 份）</t>
-  </si>
-  <si>
-    <t>(超過五年，與 09864-000建 號一併購買，</t>
-  </si>
-  <si>
-    <t>(超過五年,與 02509-000建 號一併購買， 共同使用部 份）</t>
-  </si>
-  <si>
-    <t>(超過五年，與 02509-000建 號一併購買， 共同使用部 份）</t>
-  </si>
-  <si>
-    <t>7，000,000(與 12319-000建 號一併購買， 共同使用部 份）</t>
+    <t>(超過五年與09864000建號一併購買共同使用部份）</t>
+  </si>
+  <si>
+    <t>(超過五年與09864000建號一併購買</t>
+  </si>
+  <si>
+    <t>(超過五年與02509000建號一併購買共同使用部份）</t>
+  </si>
+  <si>
+    <t>7000000(與12319000建號一併購買共同使用部份）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -207,16 +246,16 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>TOYOTA CAMRY-LE</t>
-  </si>
-  <si>
-    <t>中華 GL20SS58</t>
-  </si>
-  <si>
-    <t>89年07月 28日</t>
-  </si>
-  <si>
-    <t>87年09月 23日</t>
+    <t>TOYOTACAMRYLE</t>
+  </si>
+  <si>
+    <t>中華GL20SS58</t>
+  </si>
+  <si>
+    <t>89年07月28日</t>
+  </si>
+  <si>
+    <t>87年09月23日</t>
   </si>
   <si>
     <t>型式</t>
@@ -243,7 +282,7 @@
     <t>人</t>
   </si>
   <si>
-    <t>外 幣 總 額</t>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -261,10 +300,10 @@
     <t>陽信商業銀行民生分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行三民分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 北民生郵局</t>
+    <t>國泰世華商業銀行三民分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北民生郵局</t>
   </si>
   <si>
     <t>台新國際商業銀行</t>
@@ -291,12 +330,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -309,27 +342,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>鴻海</t>
   </si>
   <si>
@@ -360,15 +372,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-23</t>
-  </si>
-  <si>
-    <t>tmp50641</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -384,10 +387,10 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>第一金店頭市場 基金</t>
-  </si>
-  <si>
-    <t>第一金證券投 資信託股份有 限公司</t>
+    <t>第一金店頭市場基金</t>
+  </si>
+  <si>
+    <t>第一金證券投資信託股份有限公司</t>
   </si>
   <si>
     <t>名</t>
@@ -396,22 +399,22 @@
     <t>稱</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字晝及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總fl</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字晝及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總fl</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額••新臺幣 元）</t>
+    <t>1額新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -435,10 +438,10 @@
     <t>南山人壽</t>
   </si>
   <si>
-    <t>新20年期缴費增值分紅终身 壽險、南山終身醫療保險</t>
-  </si>
-  <si>
-    <t>南山新年年春還本終身保 險、南山终身醫療保險</t>
+    <t>新20年期缴費增值分紅终身壽險南山終身醫療保險</t>
+  </si>
+  <si>
+    <t>南山新年年春還本終身保險南山终身醫療保險</t>
   </si>
   <si>
     <t>南山終身醫療保險</t>
@@ -812,13 +815,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,187 +843,355 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2800</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1646.87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>2885</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2">
         <v>21</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1038,25 +1209,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1064,25 +1235,25 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>44.34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1090,25 +1261,25 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>4908.92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1116,25 +1287,25 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>402.15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1142,25 +1313,25 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>177.13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1168,25 +1339,25 @@
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>1744.79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1194,25 +1365,25 @@
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>35.25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1220,25 +1391,25 @@
         <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <v>37.62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1246,25 +1417,25 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2">
         <v>53.76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1272,25 +1443,25 @@
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2">
         <v>2140.54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1298,25 +1469,25 @@
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2">
         <v>167.96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1334,22 +1505,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1357,22 +1528,22 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2">
         <v>2164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1380,22 +1551,22 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1413,25 +1584,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1439,25 +1610,25 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1475,19 +1646,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1495,16 +1666,16 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>2200000</v>
@@ -1515,16 +1686,16 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
         <v>3100000</v>
@@ -1535,16 +1706,16 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>6751</v>
@@ -1555,16 +1726,16 @@
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
         <v>12426</v>
@@ -1575,16 +1746,16 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
         <v>111</v>
@@ -1595,16 +1766,16 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -1615,16 +1786,16 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>829818</v>
@@ -1635,16 +1806,16 @@
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>343559</v>
@@ -1655,16 +1826,16 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
         <v>11791</v>
@@ -1675,16 +1846,16 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
         <v>116996</v>
@@ -1705,43 +1876,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1749,10 +1920,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>1954</v>
@@ -1761,28 +1932,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2">
         <v>19540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>1749</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2">
         <v>76</v>
@@ -1793,10 +1964,10 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>1004</v>
@@ -1805,28 +1976,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2">
         <v>10040</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>1749</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N3" s="2">
         <v>77</v>
@@ -1837,10 +2008,10 @@
         <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>2468</v>
@@ -1849,28 +2020,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2">
         <v>24680</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>1749</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N4" s="2">
         <v>78</v>
@@ -1881,10 +2052,10 @@
         <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>2161</v>
@@ -1893,28 +2064,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2">
         <v>21610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>1749</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N5" s="2">
         <v>79</v>
@@ -1925,10 +2096,10 @@
         <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -1937,28 +2108,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <v>1749</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N6" s="2">
         <v>80</v>
@@ -1969,10 +2140,10 @@
         <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>1822</v>
@@ -1981,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2">
         <v>18220</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2">
         <v>1749</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N7" s="2">
         <v>81</v>
@@ -2013,10 +2184,10 @@
         <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>1181</v>
@@ -2025,28 +2196,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G8" s="2">
         <v>11810</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2">
         <v>1749</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N8" s="2">
         <v>82</v>
@@ -2057,10 +2228,10 @@
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>2000</v>
@@ -2069,28 +2240,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G9" s="2">
         <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2">
         <v>1749</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N9" s="2">
         <v>83</v>
@@ -2101,10 +2272,10 @@
         <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
@@ -2113,28 +2284,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
         <v>1749</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N10" s="2">
         <v>84</v>
@@ -2155,25 +2326,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2181,13 +2352,13 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2">
         <v>10000</v>
@@ -2196,7 +2367,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="H2" s="2">
         <v>100000</v>
@@ -2217,22 +2388,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2240,14 +2411,14 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2257,22 +2428,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2290,16 +2461,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2307,16 +2478,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2324,16 +2495,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2341,16 +2512,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2358,16 +2529,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
+++ b/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -66,7 +66,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市&gt;夕止區社后段社后頂小段01790002地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市內湖區石潭段四小段02460000地號</t>
@@ -87,9 +90,6 @@
     <t>臺北市松山區民生段00760005地號</t>
   </si>
   <si>
-    <t>10000分之45</t>
-  </si>
-  <si>
     <t>53000分之1982</t>
   </si>
   <si>
@@ -102,66 +102,48 @@
     <t>饒月琴</t>
   </si>
   <si>
+    <t>94年09月05日</t>
+  </si>
+  <si>
+    <t>97年02月14日</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貴賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>7000000(房地總價額）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-23</t>
+  </si>
+  <si>
+    <t>tmp50641</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段09864000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>85年05月29日</t>
   </si>
   <si>
-    <t>94年09月05日</t>
-  </si>
-  <si>
-    <t>97年02月14日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>貴賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>7000000(房地總價額）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-23</t>
-  </si>
-  <si>
-    <t>tmp50641</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小段09864000建號</t>
-  </si>
-  <si>
     <t>新北市汐止區社后段社后頂小段09909000建號</t>
   </si>
   <si>
@@ -189,9 +171,6 @@
     <t>臺南市新市區港子墘段01102000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>10000分之82</t>
   </si>
   <si>
@@ -237,217 +216,154 @@
     <t>7000000(與12319000建號一併購買共同使用部份）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>TOYOTACAMRYLE</t>
+  </si>
+  <si>
+    <t>89年07月28日</t>
+  </si>
+  <si>
+    <t>中華GL20SS58</t>
+  </si>
+  <si>
+    <t>87年09月23日</t>
+  </si>
+  <si>
+    <t>幣</t>
+  </si>
+  <si>
+    <t>別</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>外幣總額</t>
+  </si>
+  <si>
+    <t>新臺幣總額或折合新臺幣總額</t>
+  </si>
+  <si>
+    <t>陽信商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行三民分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北民生郵局</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>台積電</t>
+  </si>
+  <si>
+    <t>永豐金</t>
+  </si>
+  <si>
+    <t>聯詠</t>
+  </si>
+  <si>
+    <t>—零四</t>
+  </si>
+  <si>
+    <t>聯電</t>
+  </si>
+  <si>
+    <t>虹光</t>
+  </si>
+  <si>
+    <t>聯發科</t>
+  </si>
+  <si>
+    <t>皇翔</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>第一金店頭市場基金</t>
+  </si>
+  <si>
+    <t>第一金證券投資信託股份有限公司</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字晝及#</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總fl</t>
+  </si>
+  <si>
+    <t>1額新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>TOYOTACAMRYLE</t>
-  </si>
-  <si>
-    <t>中華GL20SS58</t>
-  </si>
-  <si>
-    <t>89年07月28日</t>
-  </si>
-  <si>
-    <t>87年09月23日</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>幣</t>
-  </si>
-  <si>
-    <t>別</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>陽信商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行三民分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北民生郵局</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>鴻海</t>
-  </si>
-  <si>
-    <t>台積電</t>
-  </si>
-  <si>
-    <t>永豐金</t>
-  </si>
-  <si>
-    <t>聯詠</t>
-  </si>
-  <si>
-    <t>—零四</t>
-  </si>
-  <si>
-    <t>聯電</t>
-  </si>
-  <si>
-    <t>虹光</t>
-  </si>
-  <si>
-    <t>聯發科</t>
-  </si>
-  <si>
-    <t>皇翔</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>第一金店頭市場基金</t>
-  </si>
-  <si>
-    <t>第一金證券投資信託股份有限公司</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字晝及#</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總fl</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
     <t>新20年期缴費增值分紅终身壽險南山終身醫療保險</t>
   </si>
   <si>
+    <t>被保險人:饒月琴</t>
+  </si>
+  <si>
     <t>南山新年年春還本終身保險南山终身醫療保險</t>
   </si>
   <si>
     <t>南山終身醫療保險</t>
-  </si>
-  <si>
-    <t>被保險人:饒月琴</t>
   </si>
   <si>
     <t>被保險人:許〇邦</t>
@@ -815,13 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,19 +780,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2800</v>
+        <v>1646.87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -885,19 +807,19 @@
         <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
@@ -906,45 +828,51 @@
         <v>1749</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0373962264150943</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>61.5867233962264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1646.87</v>
+        <v>2885</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -953,21 +881,27 @@
         <v>1749</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0042</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>12.117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>2885</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -976,22 +910,22 @@
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
@@ -1000,18 +934,24 @@
         <v>1749</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0042</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
@@ -1023,22 +963,22 @@
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
@@ -1047,18 +987,24 @@
         <v>1749</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0042</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -1070,22 +1016,22 @@
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
@@ -1094,21 +1040,27 @@
         <v>1749</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0042</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1117,22 +1069,22 @@
         <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>24</v>
@@ -1141,57 +1093,16 @@
         <v>1749</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1749</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="2">
-        <v>21</v>
+      <c r="P7" s="2">
+        <v>0.0042</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.0336</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1209,91 +1120,91 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44.34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
-        <v>44.34</v>
+        <v>4908.92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
-        <v>4908.92</v>
+        <v>402.15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
-        <v>402.15</v>
+        <v>177.13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1302,192 +1213,166 @@
         <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
-        <v>177.13</v>
+        <v>1744.79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
-        <v>1744.79</v>
+        <v>35.25</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2">
-        <v>35.25</v>
+        <v>37.62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2">
-        <v>37.62</v>
+        <v>53.76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2">
-        <v>53.76</v>
+        <v>2140.54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
-        <v>2140.54</v>
+        <v>167.96</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="2">
-        <v>167.96</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1505,68 +1390,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
-        <v>2164</v>
+        <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1998</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1576,59 +1438,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1638,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1646,218 +1482,198 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>25</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2200000</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="2">
-        <v>2200000</v>
+        <v>3100000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2">
-        <v>3100000</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2">
-        <v>6751</v>
+        <v>12426</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2">
-        <v>12426</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>829818</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="2">
-        <v>829818</v>
+        <v>343559</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="2">
-        <v>343559</v>
+        <v>11791</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="2">
-        <v>11791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>69</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2">
         <v>116996</v>
       </c>
     </row>
@@ -1868,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1882,16 +1698,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1917,34 +1733,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2">
-        <v>1954</v>
+        <v>1004</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2">
-        <v>19540</v>
+        <v>10040</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -1953,42 +1769,42 @@
         <v>1749</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2">
-        <v>1004</v>
+        <v>2468</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2">
-        <v>10040</v>
+        <v>24680</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
@@ -1997,42 +1813,42 @@
         <v>1749</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2">
-        <v>2468</v>
+        <v>2161</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2">
-        <v>24680</v>
+        <v>21610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -2041,42 +1857,42 @@
         <v>1749</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2">
-        <v>2161</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G5" s="2">
-        <v>21610</v>
+        <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>24</v>
@@ -2085,42 +1901,42 @@
         <v>1749</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2">
-        <v>1000</v>
+        <v>1822</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G6" s="2">
-        <v>10000</v>
+        <v>18220</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>24</v>
@@ -2129,42 +1945,42 @@
         <v>1749</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2">
-        <v>1822</v>
+        <v>1181</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G7" s="2">
-        <v>18220</v>
+        <v>11810</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>24</v>
@@ -2173,42 +1989,42 @@
         <v>1749</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2">
-        <v>1181</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G8" s="2">
-        <v>11810</v>
+        <v>20000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>24</v>
@@ -2217,42 +2033,42 @@
         <v>1749</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N8" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>24</v>
@@ -2261,53 +2077,9 @@
         <v>1749</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
-        <v>84</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="2">
-        <v>10000</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1749</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="2">
         <v>84</v>
       </c>
     </row>
@@ -2318,58 +2090,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>96</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="2">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1">
         <v>100000</v>
       </c>
     </row>
@@ -2380,7 +2126,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2388,62 +2134,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>103</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2453,7 +2176,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2461,84 +2184,67 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>112</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
+++ b/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -72,6 +72,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市&gt;夕止區社后段社后頂小段01790002地號</t>
+  </si>
+  <si>
     <t>臺北市內湖區石潭段四小段02460000地號</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
     <t>臺北市松山區民生段00760005地號</t>
   </si>
   <si>
+    <t>10000分之45</t>
+  </si>
+  <si>
     <t>53000分之1982</t>
   </si>
   <si>
@@ -102,18 +108,21 @@
     <t>饒月琴</t>
   </si>
   <si>
+    <t>85年05月29日</t>
+  </si>
+  <si>
     <t>94年09月05日</t>
   </si>
   <si>
     <t>97年02月14日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>贈與</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>貴賣</t>
   </si>
   <si>
@@ -138,39 +147,36 @@
     <t>新北市汐止區社后段社后頂小段09864000建號</t>
   </si>
   <si>
+    <t>新北市汐止區社后段社后頂小段09909000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段09913000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區石潭段四小段02509000建號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區石潭段四小段02542000建號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區石潭段四小段02544000建號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區石潭段四小段02546000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區民生段12319000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山處民生段12551000建號</t>
+  </si>
+  <si>
+    <t>臺南市新市區港子墘段01102000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>85年05月29日</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小段09909000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小段09913000建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區石潭段四小段02509000建號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區石潭段四小段02542000建號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區石潭段四小段02544000建號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區石潭段四小段02546000建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區民生段12319000建號</t>
-  </si>
-  <si>
-    <t>臺北市松山處民生段12551000建號</t>
-  </si>
-  <si>
-    <t>臺南市新市區港子墘段01102000建號</t>
-  </si>
-  <si>
     <t>10000分之82</t>
   </si>
   <si>
@@ -289,6 +295,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>鴻海</t>
   </si>
   <si>
     <t>台積電</t>
@@ -731,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -789,166 +798,166 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1646.87</v>
+        <v>2800</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1749</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0373962264150943</v>
+        <v>0.0045</v>
       </c>
       <c r="Q2" s="2">
-        <v>61.5867233962264</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2885</v>
+        <v>1646.87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2">
         <v>1749</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0042</v>
+        <v>0.0373962264150943</v>
       </c>
       <c r="Q3" s="2">
-        <v>12.117</v>
+        <v>61.5867233962264</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>2885</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2">
         <v>1749</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4" s="2">
         <v>0.0042</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.021</v>
+        <v>12.117</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -957,40 +966,40 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>1749</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O5" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" s="2">
         <v>0.0042</v>
@@ -1001,7 +1010,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -1010,40 +1019,40 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2">
         <v>1749</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O6" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="2">
         <v>0.0042</v>
@@ -1054,54 +1063,107 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2">
         <v>1749</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O7" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P7" s="2">
         <v>0.0042</v>
       </c>
       <c r="Q7" s="2">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0042</v>
+      </c>
+      <c r="Q8" s="2">
         <v>0.0336</v>
       </c>
     </row>
@@ -1112,7 +1174,679 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44.34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>44.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4908.92</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>27</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0082</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>40.253144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2">
+        <v>402.15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0182</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>7.31913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
+        <v>177.13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
+        <v>31</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>177.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1744.79</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.02856</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>49.8312024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <v>35.25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
+        <v>33</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.4981</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>17.558025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2">
+        <v>37.62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2">
+        <v>34</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.1865</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>7.01613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2">
+        <v>53.76</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="2">
+        <v>35</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>53.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2140.54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="2">
+        <v>36</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0049</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>10.488646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2">
+        <v>167.96</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="2">
+        <v>37</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>167.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2164</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2164</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1120,351 +1854,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1">
-        <v>44.34</v>
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4908.92</v>
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2">
-        <v>402.15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2">
-        <v>177.13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1744.79</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2">
-        <v>35.25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2">
-        <v>37.62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2">
-        <v>53.76</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2140.54</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2">
-        <v>167.96</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2164</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1998</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1908,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1482,16 +1916,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1">
         <v>2200000</v>
@@ -1499,181 +1933,201 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
-        <v>3100000</v>
+        <v>2200000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2">
-        <v>6751</v>
+        <v>3100000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
-        <v>12426</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2">
-        <v>111</v>
+        <v>12426</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2">
-        <v>829818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2">
-        <v>343559</v>
+        <v>829818</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
-        <v>11791</v>
+        <v>343559</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2">
+        <v>11791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>69</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2">
         <v>116996</v>
       </c>
     </row>
@@ -1684,7 +2138,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1698,13 +2152,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1733,353 +2187,397 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
-        <v>1004</v>
+        <v>1954</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2">
-        <v>10040</v>
+        <v>19540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>1749</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N2" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>2468</v>
+        <v>1004</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2">
-        <v>24680</v>
+        <v>10040</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2">
         <v>1749</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N3" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>2161</v>
+        <v>2468</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2">
-        <v>21610</v>
+        <v>24680</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2">
         <v>1749</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N4" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
-        <v>1000</v>
+        <v>2161</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2">
-        <v>10000</v>
+        <v>21610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2">
         <v>1749</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N5" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>1822</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" s="2">
-        <v>18220</v>
+        <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2">
         <v>1749</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N6" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>1181</v>
+        <v>1822</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G7" s="2">
-        <v>11810</v>
+        <v>18220</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2">
         <v>1749</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N7" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
-        <v>2000</v>
+        <v>1181</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G8" s="2">
-        <v>20000</v>
+        <v>11810</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2">
         <v>1749</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N8" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" s="2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2">
         <v>1749</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N9" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>84</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1749</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="2">
         <v>84</v>
       </c>
     </row>
@@ -2090,21 +2588,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1">
         <v>10000</v>
@@ -2113,9 +2611,35 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="2">
         <v>100000</v>
       </c>
     </row>
@@ -2126,7 +2650,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2134,21 +2658,21 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>103</v>
@@ -2156,17 +2680,34 @@
       <c r="C2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>108</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2176,7 +2717,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2184,30 +2725,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>114</v>
@@ -2215,36 +2756,53 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>112</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>116</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
+++ b/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -222,13 +222,16 @@
     <t>7000000(與12319000建號一併購買共同使用部份）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>TOYOTACAMRYLE</t>
   </si>
   <si>
+    <t>中華GL20SS58</t>
+  </si>
+  <si>
     <t>89年07月28日</t>
-  </si>
-  <si>
-    <t>中華GL20SS58</t>
   </si>
   <si>
     <t>87年09月23日</t>
@@ -1767,38 +1770,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1">
-        <v>2164</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>2164</v>
@@ -1807,7 +1831,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>31</v>
@@ -1815,8 +1839,29 @@
       <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1749</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>48</v>
       </c>
@@ -1830,13 +1875,34 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1749</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1854,25 +1920,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1880,25 +1946,25 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1916,13 +1982,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -1936,13 +2002,13 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -1956,13 +2022,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -1976,13 +2042,13 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -1996,13 +2062,13 @@
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -2016,13 +2082,13 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -2036,13 +2102,13 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
@@ -2056,13 +2122,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2076,13 +2142,13 @@
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -2096,13 +2162,13 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -2116,13 +2182,13 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -2152,13 +2218,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2190,7 +2256,7 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2202,13 +2268,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2">
         <v>19540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -2234,7 +2300,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2246,13 +2312,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2">
         <v>10040</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
@@ -2278,7 +2344,7 @@
         <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2290,13 +2356,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" s="2">
         <v>24680</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>37</v>
@@ -2322,7 +2388,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2334,13 +2400,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" s="2">
         <v>21610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>37</v>
@@ -2366,7 +2432,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2378,13 +2444,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>37</v>
@@ -2410,7 +2476,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2422,13 +2488,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2">
         <v>18220</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>37</v>
@@ -2454,7 +2520,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2466,13 +2532,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2">
         <v>11810</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>37</v>
@@ -2498,7 +2564,7 @@
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2510,13 +2576,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2">
         <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>37</v>
@@ -2542,7 +2608,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2554,13 +2620,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>37</v>
@@ -2596,13 +2662,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1">
         <v>10000</v>
@@ -2611,7 +2677,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1">
         <v>100000</v>
@@ -2622,13 +2688,13 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>10000</v>
@@ -2637,7 +2703,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2">
         <v>100000</v>
@@ -2658,14 +2724,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2675,16 +2741,16 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2692,22 +2758,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2725,16 +2791,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2742,16 +2808,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2759,16 +2825,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2776,16 +2842,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2793,16 +2859,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
+++ b/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
@@ -10,19 +10,18 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
-    <sheet name="航空器" sheetId="4" r:id="rId4"/>
-    <sheet name="存款" sheetId="5" r:id="rId5"/>
-    <sheet name="股票" sheetId="6" r:id="rId6"/>
-    <sheet name="基金受益憑證" sheetId="7" r:id="rId7"/>
-    <sheet name="其他有價證券" sheetId="8" r:id="rId8"/>
-    <sheet name="保險" sheetId="9" r:id="rId9"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
+    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
+    <sheet name="保險" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="116">
   <si>
     <t>name</t>
   </si>
@@ -222,6 +221,9 @@
     <t>7000000(與12319000建號一併購買共同使用部份）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -237,25 +239,7 @@
     <t>87年09月23日</t>
   </si>
   <si>
-    <t>幣</t>
-  </si>
-  <si>
-    <t>別</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
+    <t>car</t>
   </si>
   <si>
     <t>陽信商業銀行民生分行</t>
@@ -1259,7 +1243,7 @@
         <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
@@ -1312,7 +1296,7 @@
         <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>37</v>
@@ -1365,7 +1349,7 @@
         <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>37</v>
@@ -1418,7 +1402,7 @@
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>37</v>
@@ -1471,7 +1455,7 @@
         <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>37</v>
@@ -1524,7 +1508,7 @@
         <v>64</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>37</v>
@@ -1577,7 +1561,7 @@
         <v>64</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>37</v>
@@ -1630,7 +1614,7 @@
         <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>37</v>
@@ -1683,7 +1667,7 @@
         <v>65</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>37</v>
@@ -1736,7 +1720,7 @@
         <v>34</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>37</v>
@@ -1781,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1822,7 +1806,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2">
         <v>2164</v>
@@ -1831,7 +1815,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>31</v>
@@ -1840,7 +1824,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -1866,7 +1850,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
@@ -1875,7 +1859,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>31</v>
@@ -1884,7 +1868,7 @@
         <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
@@ -1911,68 +1895,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -1982,13 +1904,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -2002,13 +1924,13 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -2022,13 +1944,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -2042,13 +1964,13 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -2062,13 +1984,13 @@
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -2082,13 +2004,13 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -2102,13 +2024,13 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
@@ -2122,13 +2044,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2142,13 +2064,13 @@
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -2162,13 +2084,13 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -2182,13 +2104,13 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -2202,7 +2124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N10"/>
   <sheetViews>
@@ -2218,13 +2140,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2256,7 +2178,7 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2268,13 +2190,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2">
         <v>19540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -2300,7 +2222,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2312,13 +2234,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2">
         <v>10040</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
@@ -2344,7 +2266,7 @@
         <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2356,13 +2278,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2">
         <v>24680</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>37</v>
@@ -2388,7 +2310,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2400,13 +2322,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G5" s="2">
         <v>21610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>37</v>
@@ -2432,7 +2354,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2444,13 +2366,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>37</v>
@@ -2476,7 +2398,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2488,13 +2410,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2">
         <v>18220</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>37</v>
@@ -2520,7 +2442,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2532,13 +2454,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G8" s="2">
         <v>11810</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>37</v>
@@ -2564,7 +2486,7 @@
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2576,13 +2498,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G9" s="2">
         <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>37</v>
@@ -2608,7 +2530,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2620,13 +2542,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>37</v>
@@ -2652,7 +2574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2662,13 +2584,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1">
         <v>10000</v>
@@ -2677,7 +2599,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1">
         <v>100000</v>
@@ -2688,13 +2610,13 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>10000</v>
@@ -2703,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2">
         <v>100000</v>
@@ -2714,7 +2636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2724,14 +2646,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2741,16 +2663,16 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2758,22 +2680,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2781,7 +2703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2791,16 +2713,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2808,16 +2730,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2825,16 +2747,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2842,16 +2764,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2859,16 +2781,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
+++ b/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -242,46 +242,55 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>陽信商業銀行民生分行</t>
   </si>
   <si>
+    <t>國泰世華商業銀行三民分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北民生郵局</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行</t>
+  </si>
+  <si>
     <t>定期存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>國泰世華商業銀行三民分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北民生郵局</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>鴻海</t>
@@ -1896,13 +1905,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
@@ -1913,24 +1922,45 @@
         <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2200000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -1938,19 +1968,40 @@
       <c r="F2" s="2">
         <v>2200000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1749</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -1958,19 +2009,40 @@
       <c r="F3" s="2">
         <v>3100000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1749</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -1978,19 +2050,40 @@
       <c r="F4" s="2">
         <v>6751</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1749</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -1998,19 +2091,40 @@
       <c r="F5" s="2">
         <v>12426</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1749</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -2018,19 +2132,40 @@
       <c r="F6" s="2">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1749</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
@@ -2038,19 +2173,40 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1749</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2058,19 +2214,40 @@
       <c r="F8" s="2">
         <v>829818</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1749</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -2078,19 +2255,40 @@
       <c r="F9" s="2">
         <v>343559</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1749</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -2098,25 +2296,67 @@
       <c r="F10" s="2">
         <v>11791</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1749</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="2">
         <v>116996</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1749</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="2">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2140,13 +2380,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2178,7 +2418,7 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2190,13 +2430,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2">
         <v>19540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -2222,7 +2462,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2234,13 +2474,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2">
         <v>10040</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
@@ -2266,7 +2506,7 @@
         <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2278,13 +2518,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2">
         <v>24680</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>37</v>
@@ -2310,7 +2550,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2322,13 +2562,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2">
         <v>21610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>37</v>
@@ -2354,7 +2594,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2366,13 +2606,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>37</v>
@@ -2398,7 +2638,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2410,13 +2650,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G7" s="2">
         <v>18220</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>37</v>
@@ -2442,7 +2682,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2454,13 +2694,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G8" s="2">
         <v>11810</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>37</v>
@@ -2486,7 +2726,7 @@
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2498,13 +2738,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G9" s="2">
         <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>37</v>
@@ -2530,7 +2770,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2542,13 +2782,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>37</v>
@@ -2584,13 +2824,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1">
         <v>10000</v>
@@ -2599,7 +2839,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1">
         <v>100000</v>
@@ -2610,13 +2850,13 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>10000</v>
@@ -2625,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H2" s="2">
         <v>100000</v>
@@ -2646,14 +2886,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2663,16 +2903,16 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2680,22 +2920,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2713,16 +2953,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2730,16 +2970,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2747,16 +2987,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2764,16 +3004,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2781,16 +3021,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
+++ b/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
@@ -13,15 +13,14 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
-    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
-    <sheet name="保險" sheetId="8" r:id="rId8"/>
+    <sheet name="保險" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -323,37 +322,16 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>第一金店頭市場基金</t>
   </si>
   <si>
     <t>第一金證券投資信託股份有限公司</t>
   </si>
   <si>
-    <t>(九）珠寶古董字晝及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總fl</t>
-  </si>
-  <si>
-    <t>1額新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>fund</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -2816,47 +2794,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2">
         <v>10000</v>
@@ -2869,6 +2868,27 @@
       </c>
       <c r="H2" s="2">
         <v>100000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2877,73 +2897,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>102</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>103</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2953,16 +2906,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2970,16 +2923,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2987,16 +2940,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3004,16 +2957,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3021,16 +2974,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
+++ b/legislator/property/output/normal/許忠信_2012-04-23_財產申報表_tmp50641.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -334,28 +334,22 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
     <t>新20年期缴費增值分紅终身壽險南山終身醫療保險</t>
   </si>
   <si>
-    <t>被保險人:饒月琴</t>
-  </si>
-  <si>
     <t>南山新年年春還本終身保險南山终身醫療保險</t>
   </si>
   <si>
     <t>南山終身醫療保險</t>
   </si>
   <si>
-    <t>被保險人:許〇邦</t>
-  </si>
-  <si>
-    <t>被保險人:許〇瑜</t>
-  </si>
-  <si>
-    <t>被保險人:許忠信</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2898,49 +2892,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1749</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>107</v>
@@ -2951,13 +2981,31 @@
       <c r="E3" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1749</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>107</v>
@@ -2966,15 +3014,33 @@
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1749</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>108</v>
@@ -2983,7 +3049,25 @@
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1749</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
